--- a/FantaSoccer/MyModule/Ligue1/xGA_home_all_18.xlsx
+++ b/FantaSoccer/MyModule/Ligue1/xGA_home_all_18.xlsx
@@ -1051,31 +1051,31 @@
         <v>4.139358</v>
       </c>
       <c r="K10">
-        <v>4.139358</v>
+        <v>5.689398</v>
       </c>
       <c r="L10">
-        <v>4.139358</v>
+        <v>5.689398</v>
       </c>
       <c r="M10">
-        <v>4.139358</v>
+        <v>5.689398</v>
       </c>
       <c r="N10">
-        <v>4.461640999999999</v>
+        <v>6.011680999999999</v>
       </c>
       <c r="O10">
-        <v>4.461640999999999</v>
+        <v>6.011680999999999</v>
       </c>
       <c r="P10">
-        <v>6.169351</v>
+        <v>7.719391</v>
       </c>
       <c r="Q10">
-        <v>6.169351</v>
+        <v>7.719391</v>
       </c>
       <c r="R10">
-        <v>6.532497</v>
+        <v>8.082537</v>
       </c>
       <c r="S10">
-        <v>6.532497</v>
+        <v>8.082537</v>
       </c>
     </row>
     <row r="11" spans="1:19">
